--- a/templates/AutomationOrg/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="185">
   <si>
     <t>API Mode</t>
   </si>
@@ -543,6 +543,60 @@
   </si>
   <si>
     <t>RMA-M3AL-1-3</t>
+  </si>
+  <si>
+    <t>RMA-WNBR-001</t>
+  </si>
+  <si>
+    <t>RMA-WNBR-002</t>
+  </si>
+  <si>
+    <t>RMA-WNBR-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL0nAAE</t>
+  </si>
+  <si>
+    <t>RMA-WNBR-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL0oAAE</t>
+  </si>
+  <si>
+    <t>RMA-WNBR-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL0pAAE</t>
+  </si>
+  <si>
+    <t>RMA-WNBR-1-3</t>
+  </si>
+  <si>
+    <t>RMA-VXRY-001</t>
+  </si>
+  <si>
+    <t>RMA-VXRY-002</t>
+  </si>
+  <si>
+    <t>RMA-VXRY-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL1CAAU</t>
+  </si>
+  <si>
+    <t>RMA-VXRY-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL1DAAU</t>
+  </si>
+  <si>
+    <t>RMA-VXRY-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL1EAAU</t>
+  </si>
+  <si>
+    <t>RMA-VXRY-1-3</t>
   </si>
 </sst>
 </file>
@@ -552,7 +606,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="135" x14ac:knownFonts="1">
+  <fonts count="159" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,6 +626,150 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1374,7 +1572,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="67">
+  <borders count="79">
     <border>
       <left/>
       <right/>
@@ -1580,11 +1778,47 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="159">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1718,8 +1952,32 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="64" fillId="0" fontId="130" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="131" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="65" fillId="0" fontId="132" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="134" fillId="0" borderId="66" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="133" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="66" fillId="0" fontId="134" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="135" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="67" fillId="0" fontId="136" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="137" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="68" fillId="0" fontId="138" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="139" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="69" fillId="0" fontId="140" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="141" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="70" fillId="0" fontId="142" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="143" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="71" fillId="0" fontId="144" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="145" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="72" fillId="0" fontId="146" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="147" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="73" fillId="0" fontId="148" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="149" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="74" fillId="0" fontId="150" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="151" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="75" fillId="0" fontId="152" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="153" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="76" fillId="0" fontId="154" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="155" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="77" fillId="0" fontId="156" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="158" fillId="0" borderId="78" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2507,11 +2765,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.828125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.29296875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.1328125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.84375" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -2561,10 +2819,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -2573,7 +2831,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2590,10 +2848,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="F3" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -2602,7 +2860,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2619,10 +2877,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="F4" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -2631,7 +2889,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="203">
   <si>
     <t>API Mode</t>
   </si>
@@ -597,6 +597,60 @@
   </si>
   <si>
     <t>RMA-VXRY-1-3</t>
+  </si>
+  <si>
+    <t>RMA-VDAK-001</t>
+  </si>
+  <si>
+    <t>RMA-VDAK-002</t>
+  </si>
+  <si>
+    <t>RMA-VDAK-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL2UAAU</t>
+  </si>
+  <si>
+    <t>RMA-VDAK-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL2VAAU</t>
+  </si>
+  <si>
+    <t>RMA-VDAK-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL2WAAU</t>
+  </si>
+  <si>
+    <t>RMA-VDAK-1-3</t>
+  </si>
+  <si>
+    <t>RMA-ZH9H-001</t>
+  </si>
+  <si>
+    <t>RMA-ZH9H-002</t>
+  </si>
+  <si>
+    <t>RMA-ZH9H-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL38AAE</t>
+  </si>
+  <si>
+    <t>RMA-ZH9H-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL39AAE</t>
+  </si>
+  <si>
+    <t>RMA-ZH9H-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL3AAAU</t>
+  </si>
+  <si>
+    <t>RMA-ZH9H-1-3</t>
   </si>
 </sst>
 </file>
@@ -606,7 +660,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="159" x14ac:knownFonts="1">
+  <fonts count="183" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -626,6 +680,150 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1572,7 +1770,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="79">
+  <borders count="91">
     <border>
       <left/>
       <right/>
@@ -1814,11 +2012,47 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="183">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1976,8 +2210,32 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="76" fillId="0" fontId="154" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="155" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="77" fillId="0" fontId="156" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="158" fillId="0" borderId="78" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="157" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="78" fillId="0" fontId="158" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="159" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="79" fillId="0" fontId="160" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="161" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="80" fillId="0" fontId="162" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="163" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="81" fillId="0" fontId="164" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="165" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="82" fillId="0" fontId="166" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="167" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="83" fillId="0" fontId="168" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="169" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="84" fillId="0" fontId="170" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="171" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="85" fillId="0" fontId="172" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="173" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="86" fillId="0" fontId="174" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="175" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="87" fillId="0" fontId="176" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="177" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="88" fillId="0" fontId="178" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="179" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="89" fillId="0" fontId="180" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="182" fillId="0" borderId="90" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2765,11 +3023,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.29296875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.51953125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.84375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.765625" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -2819,10 +3077,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="F2" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -2831,7 +3089,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2848,10 +3106,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="F3" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -2860,7 +3118,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2877,10 +3135,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="F4" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -2889,7 +3147,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="212">
   <si>
     <t>API Mode</t>
   </si>
@@ -651,6 +651,33 @@
   </si>
   <si>
     <t>RMA-ZH9H-1-3</t>
+  </si>
+  <si>
+    <t>RMA-XUQA-001</t>
+  </si>
+  <si>
+    <t>RMA-XUQA-002</t>
+  </si>
+  <si>
+    <t>RMA-XUQA-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL6CAAU</t>
+  </si>
+  <si>
+    <t>RMA-XUQA-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL6DAAU</t>
+  </si>
+  <si>
+    <t>RMA-XUQA-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL6EAAU</t>
+  </si>
+  <si>
+    <t>RMA-XUQA-1-3</t>
   </si>
 </sst>
 </file>
@@ -660,7 +687,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="183" x14ac:knownFonts="1">
+  <fonts count="195" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -680,6 +707,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1770,7 +1869,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="91">
+  <borders count="97">
     <border>
       <left/>
       <right/>
@@ -2048,11 +2147,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="195">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -2234,8 +2351,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="88" fillId="0" fontId="178" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="179" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="89" fillId="0" fontId="180" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="182" fillId="0" borderId="90" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="181" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="90" fillId="0" fontId="182" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="183" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="91" fillId="0" fontId="184" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="185" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="92" fillId="0" fontId="186" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="187" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="93" fillId="0" fontId="188" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="189" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="94" fillId="0" fontId="190" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="191" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="95" fillId="0" fontId="192" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="194" fillId="0" borderId="96" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -3023,11 +3152,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.51953125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.94140625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.765625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.84375" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -3077,10 +3206,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="F2" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -3089,7 +3218,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3106,10 +3235,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="F3" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -3118,7 +3247,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3135,10 +3264,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="F4" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -3147,7 +3276,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
+++ b/templates/AutomationOrg/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="221">
   <si>
     <t>API Mode</t>
   </si>
@@ -678,6 +678,33 @@
   </si>
   <si>
     <t>RMA-XUQA-1-3</t>
+  </si>
+  <si>
+    <t>RMA-SNI8-001</t>
+  </si>
+  <si>
+    <t>RMA-SNI8-002</t>
+  </si>
+  <si>
+    <t>RMA-SNI8-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL7PAAU</t>
+  </si>
+  <si>
+    <t>RMA-SNI8-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL7QAAU</t>
+  </si>
+  <si>
+    <t>RMA-SNI8-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL7RAAU</t>
+  </si>
+  <si>
+    <t>RMA-SNI8-1-3</t>
   </si>
 </sst>
 </file>
@@ -687,7 +714,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="195" x14ac:knownFonts="1">
+  <fonts count="207" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -707,6 +734,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1869,7 +1968,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="97">
+  <borders count="103">
     <border>
       <left/>
       <right/>
@@ -2165,11 +2264,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="207">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -2363,8 +2480,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="94" fillId="0" fontId="190" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="191" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="95" fillId="0" fontId="192" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="194" fillId="0" borderId="96" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="193" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="96" fillId="0" fontId="194" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="195" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="97" fillId="0" fontId="196" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="197" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="98" fillId="0" fontId="198" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="199" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="99" fillId="0" fontId="200" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="201" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="100" fillId="0" fontId="202" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="203" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="101" fillId="0" fontId="204" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="206" fillId="0" borderId="102" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -3152,11 +3281,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.94140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.734375" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.84375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.97265625" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -3206,10 +3335,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F2" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -3218,7 +3347,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3235,10 +3364,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="F3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -3247,7 +3376,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3264,10 +3393,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="F4" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -3276,7 +3405,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
